--- a/wordDocs/Optimal weightings.xlsx
+++ b/wordDocs/Optimal weightings.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$33</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="56">
   <si>
     <t xml:space="preserve">image family </t>
   </si>
@@ -86,9 +86,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>3,75gb</t>
-  </si>
-  <si>
     <t xml:space="preserve">REpetitve 'im not sure' 'im sorry' </t>
   </si>
   <si>
@@ -123,13 +120,91 @@
   </si>
   <si>
     <t>Steps for 3 epoch</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>reddit</t>
+  </si>
+  <si>
+    <t>opensubtitles</t>
+  </si>
+  <si>
+    <t>100,000 but said it could token so up to 52176</t>
+  </si>
+  <si>
+    <t>gnmt 8 layer</t>
+  </si>
+  <si>
+    <t>num layers</t>
+  </si>
+  <si>
+    <t>infermode</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>sample t=1</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>answers not repetitve at all! But didn’t make sesne to question</t>
+  </si>
+  <si>
+    <t>gnmt</t>
+  </si>
+  <si>
+    <t>sample t=0.5</t>
+  </si>
+  <si>
+    <t>sample t=2</t>
+  </si>
+  <si>
+    <t>15GB</t>
+  </si>
+  <si>
+    <t>beam_search</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>beam_search30</t>
+  </si>
+  <si>
+    <t>rubbish eg 'hey hey hey hey hey hey hey hey ' x 20</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>num_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not good </t>
+  </si>
+  <si>
+    <t>Training loss</t>
+  </si>
+  <si>
+    <t>2!</t>
+  </si>
+  <si>
+    <t>really good response!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +236,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,19 +261,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,64 +578,85 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.33203125" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="13" max="13" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.33203125" customWidth="1"/>
+    <col min="19" max="19" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.1640625" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,39 +669,54 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
         <v>117859</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>128</v>
       </c>
-      <c r="G2">
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>512</v>
+      </c>
+      <c r="M2">
         <v>30</v>
       </c>
-      <c r="H2" s="1">
+      <c r="N2" s="1">
         <v>15000</v>
       </c>
-      <c r="I2">
-        <f>ROUND(E2/F2,0)</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O40" si="0">ROUND(F2/G2,0)</f>
         <v>921</v>
       </c>
-      <c r="J2">
-        <f>I2*3</f>
+      <c r="P2">
+        <f>O2*3</f>
         <v>2763</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K18" si="0">ROUND(G2*(I2/100)/60,2)</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q18" si="1">ROUND(M2*(O2/100)/60,2)</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="L2">
-        <f>ROUND(K2*3/60,2)</f>
+      <c r="R2">
+        <f>ROUND(Q2*3/60,2)</f>
         <v>0.23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,36 +729,51 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
         <v>20349823</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>128</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+      <c r="H3">
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I15" si="1">ROUND(E3/F3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>512</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
         <v>158983</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J33" si="2">I3*3</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P30" si="2">O3*3</f>
         <v>476949</v>
       </c>
-      <c r="K3" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q3" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" ref="L3:L33" si="3">ROUND(K3*3/60,2)</f>
+      <c r="R3" t="e">
+        <f t="shared" ref="R3:R30" si="3">ROUND(Q3*3/60,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,33 +786,48 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
         <v>20349823</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>64</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
+      <c r="H4">
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>512</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
         <v>317966</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <f t="shared" si="2"/>
         <v>953898</v>
       </c>
-      <c r="K4" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q4" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" t="e">
+      <c r="R4" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -675,42 +840,57 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
         <v>117859</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>512</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="N5" s="1">
         <v>15000</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="O5">
+        <f t="shared" si="0"/>
         <v>3683</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <f t="shared" si="2"/>
         <v>11049</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
+      <c r="Q5">
+        <f t="shared" si="1"/>
         <v>18.420000000000002</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <f t="shared" si="3"/>
         <v>0.92</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" t="s">
+      <c r="U5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -723,44 +903,59 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
         <v>117859</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>512</v>
+      </c>
+      <c r="M6">
         <v>22.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="N6" s="1">
         <v>15000</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
+      <c r="O6">
+        <f t="shared" si="0"/>
         <v>7366</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <f t="shared" si="2"/>
         <v>22098</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+      <c r="Q6">
+        <f t="shared" si="1"/>
         <v>27.62</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <f t="shared" si="3"/>
         <v>1.38</v>
       </c>
-      <c r="N6" t="s">
+      <c r="U6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -768,47 +963,62 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
         <v>117859</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>128</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>512</v>
+      </c>
+      <c r="M7">
         <v>35</v>
       </c>
-      <c r="H7" s="1">
+      <c r="N7" s="1">
         <v>30000</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="O7">
+        <f t="shared" si="0"/>
         <v>921</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="Q7">
+        <f t="shared" si="1"/>
         <v>5.37</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <f t="shared" si="3"/>
         <v>0.27</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -816,47 +1026,62 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
         <v>117859</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>512</v>
+      </c>
+      <c r="M8">
         <v>26</v>
       </c>
-      <c r="H8" s="1">
+      <c r="N8" s="1">
         <v>30000</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="O8">
+        <f t="shared" si="0"/>
         <v>7366</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <f t="shared" si="2"/>
         <v>22098</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="Q8">
+        <f t="shared" si="1"/>
         <v>31.92</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -864,47 +1089,62 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
         <v>117859</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>64</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>512</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1">
         <v>30000</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="O9">
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <f t="shared" si="2"/>
         <v>5526</v>
       </c>
-      <c r="K9" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q9" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" t="e">
+      <c r="R9" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -912,47 +1152,62 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
         <v>117859</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>512</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1">
         <v>100000</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="O10">
+        <f t="shared" si="0"/>
         <v>7366</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <f t="shared" si="2"/>
         <v>22098</v>
       </c>
-      <c r="K10" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q10" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L10" t="e">
+      <c r="R10" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -960,42 +1215,57 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
         <v>117859</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>512</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
         <v>100000</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="O11">
+        <f t="shared" si="0"/>
         <v>39286</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <f t="shared" si="2"/>
         <v>117858</v>
       </c>
-      <c r="K11" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q11" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L11" t="e">
+      <c r="R11" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1008,42 +1278,57 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
         <v>20349823</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>128</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>512</v>
+      </c>
+      <c r="M12">
         <v>36</v>
       </c>
-      <c r="H12" s="1">
+      <c r="N12" s="1">
         <v>100000</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="O12">
+        <f t="shared" si="0"/>
         <v>158983</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <f t="shared" si="2"/>
         <v>476949</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
+      <c r="Q12">
+        <f t="shared" si="1"/>
         <v>953.9</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>47.7</v>
       </c>
-      <c r="M12" t="s">
+      <c r="S12" t="s">
         <v>13</v>
       </c>
-      <c r="N12" t="s">
+      <c r="U12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1056,36 +1341,51 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
         <v>20349823</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>512</v>
+      </c>
+      <c r="M13">
         <v>24</v>
       </c>
-      <c r="H13" s="1">
+      <c r="N13" s="1">
         <v>100000</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="O13">
+        <f t="shared" si="0"/>
         <v>1271864</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <f t="shared" si="2"/>
         <v>3815592</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
+      <c r="Q13">
+        <f t="shared" si="1"/>
         <v>5087.46</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <f t="shared" si="3"/>
         <v>254.37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1098,36 +1398,51 @@
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
         <v>20349823</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>256</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>512</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1">
         <v>100000</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="O14">
+        <f t="shared" si="0"/>
         <v>79491</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <f t="shared" si="2"/>
         <v>238473</v>
       </c>
-      <c r="K14" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q14" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L14" t="e">
+      <c r="R14" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1140,36 +1455,51 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
         <v>117859</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>128</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <v>512</v>
+      </c>
+      <c r="M15">
         <v>42</v>
       </c>
-      <c r="H15" s="1">
+      <c r="N15" s="1">
         <v>100000</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="O15">
+        <f t="shared" si="0"/>
         <v>921</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
+      <c r="Q15">
+        <f t="shared" si="1"/>
         <v>6.45</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1182,39 +1512,54 @@
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
         <v>117859</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>512</v>
+      </c>
+      <c r="M16">
         <v>33</v>
       </c>
-      <c r="H16" s="1">
+      <c r="N16" s="1">
         <v>100000</v>
       </c>
-      <c r="I16">
-        <f>ROUND(E16/F16,0)</f>
+      <c r="O16">
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <f t="shared" si="2"/>
         <v>5526</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
+      <c r="Q16">
+        <f t="shared" si="1"/>
         <v>10.130000000000001</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1227,36 +1572,51 @@
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
         <v>117859</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>512</v>
+      </c>
+      <c r="M17">
         <v>30</v>
       </c>
-      <c r="H17" s="1">
+      <c r="N17" s="1">
         <v>100000</v>
       </c>
-      <c r="I17">
-        <f>ROUND(E17/F17,0)</f>
+      <c r="O17">
+        <f t="shared" si="0"/>
         <v>3683</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <f t="shared" si="2"/>
         <v>11049</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
+      <c r="Q17">
+        <f t="shared" si="1"/>
         <v>18.420000000000002</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <f t="shared" si="3"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1269,36 +1629,51 @@
       <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
         <v>117859</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>512</v>
+      </c>
+      <c r="M18">
         <v>27</v>
       </c>
-      <c r="H18" s="1">
+      <c r="N18" s="1">
         <v>100000</v>
       </c>
-      <c r="I18">
-        <f>ROUND(E18/F18,0)</f>
+      <c r="O18">
+        <f t="shared" si="0"/>
         <v>7366</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <f t="shared" si="2"/>
         <v>22098</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
+      <c r="Q18">
+        <f t="shared" si="1"/>
         <v>33.15</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <f t="shared" si="3"/>
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1311,36 +1686,51 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19">
         <v>117859</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>32</v>
       </c>
-      <c r="G19">
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>512</v>
+      </c>
+      <c r="M19">
         <v>21</v>
       </c>
-      <c r="H19" s="1">
+      <c r="N19" s="1">
         <v>50000</v>
       </c>
-      <c r="I19">
-        <f>ROUND(E19/F19,0)</f>
+      <c r="O19">
+        <f t="shared" si="0"/>
         <v>3683</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <f t="shared" si="2"/>
         <v>11049</v>
       </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K33" si="4">ROUND(G19*(I19/100)/60,2)</f>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q30" si="4">ROUND(M19*(O19/100)/60,2)</f>
         <v>12.89</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1353,307 +1743,1289 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>117860</v>
+      <c r="E20" t="s">
+        <v>31</v>
       </c>
       <c r="F20">
+        <v>117859</v>
+      </c>
+      <c r="G20">
         <v>64</v>
       </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>512</v>
+      </c>
+      <c r="M20">
         <v>23</v>
       </c>
-      <c r="H20" s="1">
+      <c r="N20" s="1">
         <v>50000</v>
       </c>
-      <c r="I20">
-        <f t="shared" ref="I20:I33" si="5">ROUND(E20/F20,0)</f>
+      <c r="O20">
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <f t="shared" si="2"/>
         <v>5526</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <f t="shared" si="4"/>
         <v>7.06</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
       <c r="F21">
+        <v>117859</v>
+      </c>
+      <c r="G21">
         <v>128</v>
       </c>
-      <c r="H21" s="1">
-        <v>50000</v>
+      <c r="H21">
+        <v>0.2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>512</v>
+      </c>
+      <c r="M21">
+        <v>51</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21">
+        <v>2763</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>7.83</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>117859</v>
+      </c>
+      <c r="G22">
+        <v>128</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>512</v>
+      </c>
+      <c r="M22">
+        <v>42</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>2763</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>6.45</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>6454272</v>
+      </c>
+      <c r="G23">
+        <v>128</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>512</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>50424</v>
+      </c>
+      <c r="P23">
+        <f>O23*3</f>
+        <v>151272</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>243.72</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G24">
+        <v>128</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>512</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>4689</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>5.21</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>6454272</v>
+      </c>
+      <c r="G25">
+        <v>128</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>512</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>50424</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>151272</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="R25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="H22" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="I23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="I24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="I25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="I26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" t="e">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>117859</v>
+      </c>
+      <c r="G26">
+        <v>128</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>512</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" t="e">
+        <v>2763</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="I27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" t="e">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>117859</v>
+      </c>
+      <c r="G27">
+        <v>128</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>512</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" t="e">
+        <v>2763</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="I28" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="e">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>117859</v>
+      </c>
+      <c r="G28">
+        <v>128</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>512</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" t="e">
+        <v>2763</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" t="e">
+        <v>2</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="I29" t="e">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>117859</v>
+      </c>
+      <c r="G29">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>512</v>
+      </c>
+      <c r="L29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>2763</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>117859</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>512</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>5526</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>3.68</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="S30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <v>117859</v>
+      </c>
+      <c r="G31">
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>512</v>
+      </c>
+      <c r="L31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:P40" si="5">O31*3</f>
+        <v>2763</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q40" si="6">ROUND(M31*(O31/100)/60,2)</f>
+        <v>1.84</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:R36" si="7">ROUND(Q31*3/60,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>117859</v>
+      </c>
+      <c r="G32">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>512</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
+        <v>2763</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>117859</v>
+      </c>
+      <c r="G33">
+        <v>128</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>512</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
+        <v>2763</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>6454272</v>
+      </c>
+      <c r="G34">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34">
+        <v>512</v>
+      </c>
+      <c r="L34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>50424</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I32" t="e">
+        <v>151272</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>126.06</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>6.3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>6454272</v>
+      </c>
+      <c r="G35">
+        <v>128</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>512</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35">
+        <v>62</v>
+      </c>
+      <c r="N35" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>50424</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" t="e">
+        <v>151272</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>521.04999999999995</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>117859</v>
+      </c>
+      <c r="G36">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>512</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2763</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <v>117859</v>
+      </c>
+      <c r="G37">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>512</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37" s="1">
+        <v>39422</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>2763</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:R40" si="8">ROUND(Q37*3/60,2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10605036</v>
+      </c>
+      <c r="G38">
+        <v>128</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38">
+        <v>512</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>82852</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>248556</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>621.39</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3">
+        <v>10605036</v>
+      </c>
+      <c r="G39">
+        <v>128</v>
+      </c>
+      <c r="H39">
+        <v>0.4</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>512</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39">
+        <v>41</v>
+      </c>
+      <c r="N39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>82852</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>248556</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>566.16</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>28.31</v>
+      </c>
+      <c r="S39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10605036</v>
+      </c>
+      <c r="G40">
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40">
+        <v>512</v>
+      </c>
+      <c r="L40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>82852</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>248556</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>372.83</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>18.64</v>
+      </c>
+      <c r="S40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H1048576">
+        <v>0.2</v>
+      </c>
+      <c r="J1048576" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1048576" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O33"/>
+  <autoFilter ref="A1:V33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/wordDocs/Optimal weightings.xlsx
+++ b/wordDocs/Optimal weightings.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finding baseline" sheetId="1" r:id="rId1"/>
     <sheet name="optimizing good model" sheetId="2" r:id="rId2"/>
     <sheet name="Scoring" sheetId="4" r:id="rId3"/>
-    <sheet name="binary classification model" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="binary classification model" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'finding baseline'!$A$1:$V$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'finding baseline'!$A$1:$V$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$1:$64</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="922">
   <si>
     <t xml:space="preserve">image family </t>
   </si>
@@ -2468,19 +2470,474 @@
   <si>
     <t>New base + Dropout0.4 + 4layersencdec + 1024 units</t>
   </si>
+  <si>
+    <t>She's a nice guy.</t>
+  </si>
+  <si>
+    <t>Not so good, but I'm not good enough for you.</t>
+  </si>
+  <si>
+    <t>Screw them!</t>
+  </si>
+  <si>
+    <t>I was just thinking about the boar, and I'm not sure.</t>
+  </si>
+  <si>
+    <t>I'm not going to be alone.</t>
+  </si>
+  <si>
+    <t>I was just thinking.</t>
+  </si>
+  <si>
+    <t>I've been here for a long time.</t>
+  </si>
+  <si>
+    <t>I've been thinking about it.</t>
+  </si>
+  <si>
+    <t>You're supposed to be on the phone.</t>
+  </si>
+  <si>
+    <t>Indeed.</t>
+  </si>
+  <si>
+    <t>My name is Jarod.</t>
+  </si>
+  <si>
+    <t>This is the only way I can afford to.</t>
+  </si>
+  <si>
+    <t>He deserves to be the same as Kuranaga and Hirayama.</t>
+  </si>
+  <si>
+    <t>I mean, I'm not sure.</t>
+  </si>
+  <si>
+    <t>I think you're right.</t>
+  </si>
+  <si>
+    <t>You're a brave man to order this.</t>
+  </si>
+  <si>
+    <t>It's a big one.</t>
+  </si>
+  <si>
+    <t>You want me to go to a movie?</t>
+  </si>
+  <si>
+    <t>You're not even a doctor.</t>
+  </si>
+  <si>
+    <t>That's the man's name.</t>
+  </si>
+  <si>
+    <t>I got it.</t>
+  </si>
+  <si>
+    <t>Because I'm not.</t>
+  </si>
+  <si>
+    <t>I'm gonna go get a little sip of blood.</t>
+  </si>
+  <si>
+    <t>His name is Arthur.</t>
+  </si>
+  <si>
+    <t>No, but he's not there.</t>
+  </si>
+  <si>
+    <t>I'm gonna have to pay for it.</t>
+  </si>
+  <si>
+    <t>You're not too sure.</t>
+  </si>
+  <si>
+    <t>You want to kill me?</t>
+  </si>
+  <si>
+    <t>Yes, my child.</t>
+  </si>
+  <si>
+    <t>I'll be right there.</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>Come back.</t>
+  </si>
+  <si>
+    <t>It's not that simple, really.</t>
+  </si>
+  <si>
+    <t>Not yet.</t>
+  </si>
+  <si>
+    <t>I want to know if you're going to be a star.</t>
+  </si>
+  <si>
+    <t>I'm not going to be there.</t>
+  </si>
+  <si>
+    <t>No, I don't.</t>
+  </si>
+  <si>
+    <t>You're gonna be okay.</t>
+  </si>
+  <si>
+    <t>She's got a lot of nerve to do.</t>
+  </si>
+  <si>
+    <t>She's gone.</t>
+  </si>
+  <si>
+    <t>He was a bit of a good guy.</t>
+  </si>
+  <si>
+    <t>Not even.</t>
+  </si>
+  <si>
+    <t>You're a good boy.</t>
+  </si>
+  <si>
+    <t>He's a fucking thief.</t>
+  </si>
+  <si>
+    <t>I'll take care of it.</t>
+  </si>
+  <si>
+    <t>You're not being married?</t>
+  </si>
+  <si>
+    <t>Yep.</t>
+  </si>
+  <si>
+    <t>You're a good woman.</t>
+  </si>
+  <si>
+    <t>You're not familiar with the phrase, are you?</t>
+  </si>
+  <si>
+    <t>I'm a little fuzzy and a tin of leftovers.</t>
+  </si>
+  <si>
+    <t>No, it was a long time ago.</t>
+  </si>
+  <si>
+    <t>No, but it was a joke.</t>
+  </si>
+  <si>
+    <t>You can't be a good hostess.</t>
+  </si>
+  <si>
+    <t>No attention</t>
+  </si>
+  <si>
+    <t>I prefer Programming</t>
+  </si>
+  <si>
+    <t>The wind chimes on my porch.</t>
+  </si>
+  <si>
+    <t>Howard said he was going to blow his brains out</t>
+  </si>
+  <si>
+    <t>Yeah, I understand</t>
+  </si>
+  <si>
+    <t>I'm not sure if it's a city, all I know is that I live in Reigate. I'm not so good at geography!</t>
+  </si>
+  <si>
+    <t>I live in Reigate</t>
+  </si>
+  <si>
+    <t>Reigate, it really is a marvelous place, you should visit</t>
+  </si>
+  <si>
+    <t>My name is Matt</t>
+  </si>
+  <si>
+    <t>There's nobody here.</t>
+  </si>
+  <si>
+    <t>You know what I'm talking about, you fucking cockroach</t>
+  </si>
+  <si>
+    <t>Whoa, whoa, whoa.</t>
+  </si>
+  <si>
+    <t>It's the key.</t>
+  </si>
+  <si>
+    <t>I don't</t>
+  </si>
+  <si>
+    <t>What do you mean?</t>
+  </si>
+  <si>
+    <t>God bless her.</t>
+  </si>
+  <si>
+    <t>Just a moment.</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>I reside in Reigate</t>
+  </si>
+  <si>
+    <t>I'll give you a ride here.</t>
+  </si>
+  <si>
+    <t>Uh-uh.</t>
+  </si>
+  <si>
+    <t>They got him.</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>Mm-hmm.</t>
+  </si>
+  <si>
+    <t>What's wrong?</t>
+  </si>
+  <si>
+    <t>Dad, this is Ellie.</t>
+  </si>
+  <si>
+    <t>I am 22, although it's a bit of a secret</t>
+  </si>
+  <si>
+    <t>Where's Bill?</t>
+  </si>
+  <si>
+    <t>All right, all right.</t>
+  </si>
+  <si>
+    <t>I think I'm 22</t>
+  </si>
+  <si>
+    <t>How rude! My name is Matt</t>
+  </si>
+  <si>
+    <t>Where have you been?</t>
+  </si>
+  <si>
+    <t>Talk to me, guys.</t>
+  </si>
+  <si>
+    <t>It's in a nice little server in Reigate</t>
+  </si>
+  <si>
+    <t>Why don't you take them up?</t>
+  </si>
+  <si>
+    <t>Sure.</t>
+  </si>
+  <si>
+    <t>He's dead.</t>
+  </si>
+  <si>
+    <t>All I know is that I now live in Reigate</t>
+  </si>
+  <si>
+    <t>Who else?</t>
+  </si>
+  <si>
+    <t>Something very important has</t>
+  </si>
+  <si>
+    <t>My hometown in Reigate</t>
+  </si>
+  <si>
+    <t>Programming!</t>
+  </si>
+  <si>
+    <t>I have many hobbies, my favourite being Programming</t>
+  </si>
+  <si>
+    <t>Thanks for asking. My name is Matt</t>
+  </si>
+  <si>
+    <t>In a village called Domremy.</t>
+  </si>
+  <si>
+    <t>If you must know, I'm Male</t>
+  </si>
+  <si>
+    <t>I am a Male</t>
+  </si>
+  <si>
+    <t>What's your favourite hobby?</t>
+  </si>
+  <si>
+    <t>Do you have any interests?</t>
+  </si>
+  <si>
+    <t>Is your name bob?</t>
+  </si>
+  <si>
+    <t>Where were you born?</t>
+  </si>
+  <si>
+    <t>Are you a man or a woman?</t>
+  </si>
+  <si>
+    <t>Are you a boy?</t>
+  </si>
+  <si>
+    <t>Where do you live?</t>
+  </si>
+  <si>
+    <t> Joel, do you like music?</t>
+  </si>
+  <si>
+    <t>: 0.5900126099586487hobby</t>
+  </si>
+  <si>
+    <t> Why did you come here?</t>
+  </si>
+  <si>
+    <t>: 0.6564992070198059location</t>
+  </si>
+  <si>
+    <t> Why do you go on living?</t>
+  </si>
+  <si>
+    <t>: 0.5900532603263855location</t>
+  </si>
+  <si>
+    <t> Mr. Pyare Lal, when did you come?</t>
+  </si>
+  <si>
+    <t>: 0.7327489852905273location</t>
+  </si>
+  <si>
+    <t> What's your name, please?</t>
+  </si>
+  <si>
+    <t>: 0.9811516404151917name</t>
+  </si>
+  <si>
+    <t> Then why are you still here?</t>
+  </si>
+  <si>
+    <t>: 0.7058507204055786location</t>
+  </si>
+  <si>
+    <t> How are you?</t>
+  </si>
+  <si>
+    <t>: 0.5677074193954468age</t>
+  </si>
+  <si>
+    <t> You would murder them to capture me?</t>
+  </si>
+  <si>
+    <t>: 0.9387537837028503age</t>
+  </si>
+  <si>
+    <t> Who are they?</t>
+  </si>
+  <si>
+    <t>: 0.7266312837600708name</t>
+  </si>
+  <si>
+    <t> Where's Richard and Julia?</t>
+  </si>
+  <si>
+    <t>: 0.9945482611656189location</t>
+  </si>
+  <si>
+    <t> Where's Sherry?</t>
+  </si>
+  <si>
+    <t>: 0.9948646426200867location</t>
+  </si>
+  <si>
+    <t> Why didn't you come?</t>
+  </si>
+  <si>
+    <t>: 0.5542424321174622location</t>
+  </si>
+  <si>
+    <t> Where have you been?</t>
+  </si>
+  <si>
+    <t>: 0.7295464277267456location</t>
+  </si>
+  <si>
+    <t> You don't speak at all, do you?</t>
+  </si>
+  <si>
+    <t>: 0.6260268688201904location</t>
+  </si>
+  <si>
+    <t> What's your favourite hobby?</t>
+  </si>
+  <si>
+    <t>: 0.9963158965110779hobby</t>
+  </si>
+  <si>
+    <t> Do you have any interests?</t>
+  </si>
+  <si>
+    <t>: 0.9977553486824036hobby</t>
+  </si>
+  <si>
+    <t> Is your name bob?</t>
+  </si>
+  <si>
+    <t>: 0.969443678855896name</t>
+  </si>
+  <si>
+    <t> Are you a man or a woman?</t>
+  </si>
+  <si>
+    <t>: 0.9941321015357971gender</t>
+  </si>
+  <si>
+    <t> Are you a boy?</t>
+  </si>
+  <si>
+    <t>: 0.756841242313385gender</t>
+  </si>
+  <si>
+    <t>: 0.7739513516426086location</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>I live in reigate</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>yfp</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2540,6 +2997,15 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2646,63 +3112,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2978,10 +3461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3185,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3362,7 +3846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3425,7 +3909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3488,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3551,7 +4035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3614,7 +4098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3677,7 +4161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3740,7 +4224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3797,7 +4281,7 @@
         <v>254.37</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3854,7 +4338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3911,7 +4395,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3971,7 +4455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4028,7 +4512,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4085,7 +4569,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4142,7 +4626,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4199,7 +4683,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4256,7 +4740,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4313,7 +4797,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4370,7 +4854,7 @@
         <v>12.19</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4427,7 +4911,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4481,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4522,7 +5006,7 @@
         <v>39422</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f>ROUND(F26/G26,0)</f>
         <v>921</v>
       </c>
       <c r="P26">
@@ -4538,7 +5022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4592,7 +5076,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4652,7 +5136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4715,7 +5199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4778,7 +5262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4841,7 +5325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4904,7 +5388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4967,7 +5451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -5030,7 +5514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -5087,7 +5571,7 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -5150,7 +5634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -5206,11 +5690,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="R37">
-        <f>ROUND(Q37*3/60,2)</f>
+        <f t="shared" ref="R37:R45" si="8">ROUND(Q37*3/60,2)</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -5266,11 +5750,11 @@
         <v>621.39</v>
       </c>
       <c r="R38">
-        <f>ROUND(Q38*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>31.07</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -5326,7 +5810,7 @@
         <v>566.16</v>
       </c>
       <c r="R39">
-        <f>ROUND(Q39*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>28.31</v>
       </c>
       <c r="S39" t="s">
@@ -5336,7 +5820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -5392,14 +5876,14 @@
         <v>372.83</v>
       </c>
       <c r="R40" s="4">
-        <f>ROUND(Q40*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>18.64</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -5449,14 +5933,14 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <f>ROUND(Q41*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -5494,14 +5978,14 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <f>ROUND(Q42*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -5542,14 +6026,14 @@
         <v>3.36</v>
       </c>
       <c r="R43">
-        <f>ROUND(Q43*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>0.17</v>
       </c>
       <c r="S43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -5590,14 +6074,14 @@
         <v>7.84</v>
       </c>
       <c r="R44">
-        <f>ROUND(Q44*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
       <c r="S44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5630,7 +6114,7 @@
         <v>4261</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45" si="8">O45*3</f>
+        <f t="shared" ref="P45" si="9">O45*3</f>
         <v>12783</v>
       </c>
       <c r="Q45">
@@ -5638,7 +6122,7 @@
         <v>8.52</v>
       </c>
       <c r="R45">
-        <f>ROUND(Q45*3/60,2)</f>
+        <f t="shared" si="8"/>
         <v>0.43</v>
       </c>
     </row>
@@ -5654,7 +6138,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V33"/>
+  <autoFilter ref="A1:V45">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="reddit"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="117,859"/>
+        <filter val="117859"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="15,000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5664,10 +6165,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A107" sqref="A107"/>
-      <selection pane="topRight" activeCell="E132" sqref="E132:E231"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5811,11 +6312,11 @@
         <v>100000</v>
       </c>
       <c r="R3" s="7">
-        <f>ROUND(G3/H3,0)</f>
+        <f t="shared" ref="R3:R8" si="0">ROUND(G3/H3,0)</f>
         <v>82852</v>
       </c>
       <c r="S3" s="7">
-        <f>R3*3</f>
+        <f t="shared" ref="S3:S8" si="1">R3*3</f>
         <v>248556</v>
       </c>
       <c r="T3" s="7">
@@ -5884,11 +6385,11 @@
         <v>100000</v>
       </c>
       <c r="R4">
-        <f>ROUND(G4/H4,0)</f>
+        <f t="shared" si="0"/>
         <v>82852</v>
       </c>
       <c r="S4">
-        <f>R4*3</f>
+        <f t="shared" si="1"/>
         <v>248556</v>
       </c>
       <c r="T4">
@@ -5954,11 +6455,11 @@
         <v>100000</v>
       </c>
       <c r="R5">
-        <f>ROUND(G5/H5,0)</f>
+        <f t="shared" si="0"/>
         <v>82852</v>
       </c>
       <c r="S5">
-        <f>R5*3</f>
+        <f t="shared" si="1"/>
         <v>248556</v>
       </c>
       <c r="T5">
@@ -6021,11 +6522,11 @@
         <v>100000</v>
       </c>
       <c r="R6">
-        <f>ROUND(G6/H6,0)</f>
+        <f t="shared" si="0"/>
         <v>82852</v>
       </c>
       <c r="S6">
-        <f>R6*3</f>
+        <f t="shared" si="1"/>
         <v>248556</v>
       </c>
       <c r="T6">
@@ -6091,11 +6592,11 @@
         <v>100000</v>
       </c>
       <c r="R7">
-        <f>ROUND(G7/H7,0)</f>
+        <f t="shared" si="0"/>
         <v>82852</v>
       </c>
       <c r="S7">
-        <f>R7*3</f>
+        <f t="shared" si="1"/>
         <v>248556</v>
       </c>
       <c r="T7">
@@ -6161,11 +6662,11 @@
         <v>100000</v>
       </c>
       <c r="R8">
-        <f>ROUND(G8/H8,0)</f>
+        <f t="shared" si="0"/>
         <v>82852</v>
       </c>
       <c r="S8">
-        <f>R8*3</f>
+        <f t="shared" si="1"/>
         <v>248556</v>
       </c>
       <c r="T8">
@@ -6201,7 +6702,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>204</v>
       </c>
@@ -6224,7 +6725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>205</v>
       </c>
@@ -6247,7 +6748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>206</v>
       </c>
@@ -6270,7 +6771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>207</v>
       </c>
@@ -6293,7 +6794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>208</v>
       </c>
@@ -6316,7 +6817,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>209</v>
       </c>
@@ -6339,7 +6840,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>210</v>
       </c>
@@ -6362,7 +6863,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>211</v>
       </c>
@@ -6385,7 +6886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>212</v>
       </c>
@@ -6408,7 +6909,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>213</v>
       </c>
@@ -6431,7 +6932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>214</v>
       </c>
@@ -6454,7 +6955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>215</v>
       </c>
@@ -6477,7 +6978,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>216</v>
       </c>
@@ -6500,7 +7001,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>217</v>
       </c>
@@ -6523,7 +7024,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>218</v>
       </c>
@@ -6546,7 +7047,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>219</v>
       </c>
@@ -6569,7 +7070,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>220</v>
       </c>
@@ -6592,7 +7093,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>221</v>
       </c>
@@ -6615,7 +7116,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>222</v>
       </c>
@@ -6638,7 +7139,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>223</v>
       </c>
@@ -6661,7 +7162,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>224</v>
       </c>
@@ -6684,7 +7185,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>225</v>
       </c>
@@ -6707,7 +7208,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>226</v>
       </c>
@@ -6730,7 +7231,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>227</v>
       </c>
@@ -6753,7 +7254,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>228</v>
       </c>
@@ -6776,7 +7277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>229</v>
       </c>
@@ -6799,7 +7300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>230</v>
       </c>
@@ -6822,7 +7323,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>231</v>
       </c>
@@ -6845,7 +7346,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>232</v>
       </c>
@@ -6868,7 +7369,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>233</v>
       </c>
@@ -6891,7 +7392,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>234</v>
       </c>
@@ -6914,7 +7415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>234</v>
       </c>
@@ -6937,7 +7438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>235</v>
       </c>
@@ -6960,7 +7461,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>236</v>
       </c>
@@ -6983,7 +7484,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>237</v>
       </c>
@@ -7006,7 +7507,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>238</v>
       </c>
@@ -7029,7 +7530,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>239</v>
       </c>
@@ -7052,7 +7553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>240</v>
       </c>
@@ -7075,7 +7576,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>241</v>
       </c>
@@ -7098,7 +7599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>242</v>
       </c>
@@ -7121,7 +7622,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>243</v>
       </c>
@@ -7144,7 +7645,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>244</v>
       </c>
@@ -7167,7 +7668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>245</v>
       </c>
@@ -7190,7 +7691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>246</v>
       </c>
@@ -7213,7 +7714,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>247</v>
       </c>
@@ -7236,7 +7737,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>248</v>
       </c>
@@ -7259,7 +7760,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>249</v>
       </c>
@@ -7282,7 +7783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>250</v>
       </c>
@@ -7305,7 +7806,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>251</v>
       </c>
@@ -7328,7 +7829,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>252</v>
       </c>
@@ -7351,7 +7852,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>253</v>
       </c>
@@ -7374,7 +7875,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>245</v>
       </c>
@@ -7397,7 +7898,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>254</v>
       </c>
@@ -7420,7 +7921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>255</v>
       </c>
@@ -7443,7 +7944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>256</v>
       </c>
@@ -7466,7 +7967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>257</v>
       </c>
@@ -7489,7 +7990,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>258</v>
       </c>
@@ -7512,7 +8013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>259</v>
       </c>
@@ -7535,7 +8036,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>260</v>
       </c>
@@ -7558,7 +8059,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>261</v>
       </c>
@@ -7581,7 +8082,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>262</v>
       </c>
@@ -7604,7 +8105,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>263</v>
       </c>
@@ -7627,7 +8128,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>264</v>
       </c>
@@ -7650,7 +8151,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>265</v>
       </c>
@@ -7673,7 +8174,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>266</v>
       </c>
@@ -7696,7 +8197,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>267</v>
       </c>
@@ -7719,7 +8220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>268</v>
       </c>
@@ -7742,7 +8243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>269</v>
       </c>
@@ -7765,7 +8266,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>270</v>
       </c>
@@ -7788,7 +8289,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>271</v>
       </c>
@@ -7811,7 +8312,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>272</v>
       </c>
@@ -7834,7 +8335,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>245</v>
       </c>
@@ -7857,7 +8358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>273</v>
       </c>
@@ -7880,7 +8381,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>274</v>
       </c>
@@ -7903,7 +8404,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>275</v>
       </c>
@@ -7926,7 +8427,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>276</v>
       </c>
@@ -7949,7 +8450,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>277</v>
       </c>
@@ -7972,7 +8473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>278</v>
       </c>
@@ -7995,7 +8496,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>279</v>
       </c>
@@ -8018,7 +8519,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>267</v>
       </c>
@@ -8041,7 +8542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>280</v>
       </c>
@@ -8064,7 +8565,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>281</v>
       </c>
@@ -8087,7 +8588,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>282</v>
       </c>
@@ -8110,7 +8611,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>283</v>
       </c>
@@ -8133,7 +8634,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>284</v>
       </c>
@@ -8156,7 +8657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>285</v>
       </c>
@@ -8179,7 +8680,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>286</v>
       </c>
@@ -8202,7 +8703,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>287</v>
       </c>
@@ -8225,7 +8726,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>288</v>
       </c>
@@ -8248,7 +8749,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>289</v>
       </c>
@@ -8271,7 +8772,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>290</v>
       </c>
@@ -8294,7 +8795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>291</v>
       </c>
@@ -8317,7 +8818,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>292</v>
       </c>
@@ -8340,7 +8841,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>293</v>
       </c>
@@ -8363,7 +8864,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>294</v>
       </c>
@@ -8386,7 +8887,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>295</v>
       </c>
@@ -8409,7 +8910,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>260</v>
       </c>
@@ -8432,7 +8933,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>296</v>
       </c>
@@ -8455,7 +8956,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>297</v>
       </c>
@@ -8478,7 +8979,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>298</v>
       </c>
@@ -8501,6 +9002,7 @@
         <v>422</v>
       </c>
     </row>
+    <row r="118" spans="1:25" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="120" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>617</v>
@@ -10958,17 +11460,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K927"/>
+  <dimension ref="A1:L1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A825" sqref="A825"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
@@ -11015,7 +11517,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11199,7 +11701,7 @@
         <v>540</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -11304,7 +11806,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -11369,7 +11871,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -11610,7 +12112,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -11661,7 +12163,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -11899,7 +12401,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -12154,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -12474,7 +12976,7 @@
         <v>587</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -12670,7 +13172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>295</v>
       </c>
@@ -12687,7 +13189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>260</v>
       </c>
@@ -12704,7 +13206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>296</v>
       </c>
@@ -12721,7 +13223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>297</v>
       </c>
@@ -12738,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>298</v>
       </c>
@@ -12749,33 +13251,37 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="18" t="s">
         <v>478</v>
       </c>
       <c r="C102" s="21">
         <f>SUM(C2:C101)/404</f>
-        <v>0.83168316831683164</v>
+        <v>0.83910891089108908</v>
       </c>
       <c r="D102" s="21">
         <f>SUM(D2:D101)/404</f>
-        <v>0.76732673267326734</v>
+        <v>0.78960396039603964</v>
       </c>
       <c r="E102" s="21">
         <f>SUM(E2:E101)/404</f>
         <v>0.58168316831683164</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B103" s="18"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <f>C102+C308+C411+C514</f>
+        <v>3.4603960396039604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="19" t="s">
         <v>299</v>
@@ -12792,8 +13298,12 @@
       <c r="K104" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f>L103/4</f>
+        <v>0.86509900990099009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>204</v>
       </c>
@@ -12822,7 +13332,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>205</v>
       </c>
@@ -12851,7 +13361,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>206</v>
       </c>
@@ -12877,7 +13387,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>207</v>
       </c>
@@ -12906,7 +13416,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>208</v>
       </c>
@@ -12926,7 +13436,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>209</v>
       </c>
@@ -12946,7 +13456,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>210</v>
       </c>
@@ -12963,7 +13473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>211</v>
       </c>
@@ -14340,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>288</v>
       </c>
@@ -14357,7 +14867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>289</v>
       </c>
@@ -14374,7 +14884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>290</v>
       </c>
@@ -14391,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>291</v>
       </c>
@@ -14408,7 +14918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>292</v>
       </c>
@@ -14425,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>293</v>
       </c>
@@ -14442,7 +14952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>294</v>
       </c>
@@ -14459,7 +14969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>295</v>
       </c>
@@ -14476,7 +14986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>260</v>
       </c>
@@ -14493,7 +15003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>296</v>
       </c>
@@ -14510,7 +15020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>297</v>
       </c>
@@ -14527,7 +15037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>298</v>
       </c>
@@ -14544,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="18"/>
       <c r="B205" s="18" t="s">
         <v>478</v>
@@ -14562,11 +15072,11 @@
         <v>0.56188118811881194</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
     </row>
-    <row r="207" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="19" t="s">
         <v>301</v>
@@ -14583,8 +15093,12 @@
       <c r="K207" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <f>D102+D308+D411+D514</f>
+        <v>3.3044554455445545</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>204</v>
       </c>
@@ -14613,7 +15127,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>205</v>
       </c>
@@ -14642,7 +15156,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>206</v>
       </c>
@@ -14668,7 +15182,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>207</v>
       </c>
@@ -14697,7 +15211,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
         <v>208</v>
       </c>
@@ -14717,7 +15231,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
         <v>209</v>
       </c>
@@ -14737,7 +15251,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
         <v>210</v>
       </c>
@@ -14754,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
         <v>211</v>
       </c>
@@ -14771,7 +15285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
         <v>212</v>
       </c>
@@ -14788,7 +15302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>213</v>
       </c>
@@ -14805,7 +15319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
         <v>214</v>
       </c>
@@ -14822,7 +15336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
         <v>215</v>
       </c>
@@ -14839,7 +15353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
         <v>216</v>
       </c>
@@ -14856,7 +15370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>217</v>
       </c>
@@ -14873,7 +15387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>218</v>
       </c>
@@ -14890,7 +15404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
         <v>219</v>
       </c>
@@ -14907,7 +15421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
         <v>220</v>
       </c>
@@ -14924,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
         <v>221</v>
       </c>
@@ -14941,7 +15455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
         <v>222</v>
       </c>
@@ -14958,7 +15472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
         <v>223</v>
       </c>
@@ -14975,7 +15489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
         <v>224</v>
       </c>
@@ -14992,7 +15506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
         <v>225</v>
       </c>
@@ -15009,7 +15523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
         <v>226</v>
       </c>
@@ -15026,7 +15540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>227</v>
       </c>
@@ -15043,7 +15557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
         <v>228</v>
       </c>
@@ -15060,7 +15574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
         <v>229</v>
       </c>
@@ -15077,7 +15591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
         <v>230</v>
       </c>
@@ -15094,7 +15608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
         <v>231</v>
       </c>
@@ -15111,7 +15625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>232</v>
       </c>
@@ -15128,7 +15642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
         <v>233</v>
       </c>
@@ -15145,7 +15659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
         <v>234</v>
       </c>
@@ -15162,7 +15676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
         <v>234</v>
       </c>
@@ -15179,7 +15693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
         <v>235</v>
       </c>
@@ -15196,7 +15710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
         <v>236</v>
       </c>
@@ -15213,7 +15727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
         <v>237</v>
       </c>
@@ -15230,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="s">
         <v>238</v>
       </c>
@@ -15247,7 +15761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
         <v>239</v>
       </c>
@@ -15264,7 +15778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
         <v>240</v>
       </c>
@@ -15281,7 +15795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
         <v>241</v>
       </c>
@@ -15298,7 +15812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
         <v>242</v>
       </c>
@@ -15315,7 +15829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
         <v>243</v>
       </c>
@@ -15332,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
         <v>244</v>
       </c>
@@ -15349,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
         <v>245</v>
       </c>
@@ -15366,7 +15880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
         <v>246</v>
       </c>
@@ -15383,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
         <v>247</v>
       </c>
@@ -15400,7 +15914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
         <v>248</v>
       </c>
@@ -15417,7 +15931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
         <v>249</v>
       </c>
@@ -15434,7 +15948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
         <v>250</v>
       </c>
@@ -15451,7 +15965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
         <v>251</v>
       </c>
@@ -15468,7 +15982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
         <v>252</v>
       </c>
@@ -15485,7 +15999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
         <v>253</v>
       </c>
@@ -15502,7 +16016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
         <v>245</v>
       </c>
@@ -15519,7 +16033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
         <v>254</v>
       </c>
@@ -15536,7 +16050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
         <v>255</v>
       </c>
@@ -15553,7 +16067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
         <v>256</v>
       </c>
@@ -15570,7 +16084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
         <v>257</v>
       </c>
@@ -15587,7 +16101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
         <v>258</v>
       </c>
@@ -15604,7 +16118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
         <v>259</v>
       </c>
@@ -15621,7 +16135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
         <v>260</v>
       </c>
@@ -15638,7 +16152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
         <v>261</v>
       </c>
@@ -15655,7 +16169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="18" t="s">
         <v>262</v>
       </c>
@@ -15672,7 +16186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="18" t="s">
         <v>263</v>
       </c>
@@ -15689,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
         <v>264</v>
       </c>
@@ -15706,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
         <v>265</v>
       </c>
@@ -15723,7 +16237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
         <v>266</v>
       </c>
@@ -15740,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
         <v>267</v>
       </c>
@@ -15757,7 +16271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
         <v>268</v>
       </c>
@@ -15774,7 +16288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
         <v>269</v>
       </c>
@@ -15791,7 +16305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
         <v>270</v>
       </c>
@@ -15808,7 +16322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
         <v>271</v>
       </c>
@@ -15825,7 +16339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
         <v>272</v>
       </c>
@@ -15842,7 +16356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
         <v>245</v>
       </c>
@@ -15859,7 +16373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
         <v>273</v>
       </c>
@@ -15876,7 +16390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
         <v>274</v>
       </c>
@@ -15893,7 +16407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
         <v>275</v>
       </c>
@@ -15910,7 +16424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
         <v>276</v>
       </c>
@@ -15927,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
         <v>277</v>
       </c>
@@ -15944,7 +16458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
         <v>278</v>
       </c>
@@ -15961,7 +16475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
         <v>279</v>
       </c>
@@ -15978,7 +16492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
         <v>267</v>
       </c>
@@ -15995,7 +16509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
         <v>280</v>
       </c>
@@ -16012,7 +16526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="18" t="s">
         <v>281</v>
       </c>
@@ -16029,7 +16543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="18" t="s">
         <v>282</v>
       </c>
@@ -16046,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18" t="s">
         <v>283</v>
       </c>
@@ -16063,7 +16577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
         <v>284</v>
       </c>
@@ -16080,7 +16594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="18" t="s">
         <v>285</v>
       </c>
@@ -16097,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="18" t="s">
         <v>286</v>
       </c>
@@ -16114,7 +16628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="18" t="s">
         <v>287</v>
       </c>
@@ -16131,7 +16645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="18" t="s">
         <v>288</v>
       </c>
@@ -16148,7 +16662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="18" t="s">
         <v>289</v>
       </c>
@@ -16165,7 +16679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="18" t="s">
         <v>290</v>
       </c>
@@ -16182,7 +16696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="18" t="s">
         <v>291</v>
       </c>
@@ -16199,7 +16713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="18" t="s">
         <v>292</v>
       </c>
@@ -16216,7 +16730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="18" t="s">
         <v>293</v>
       </c>
@@ -16233,7 +16747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="18" t="s">
         <v>294</v>
       </c>
@@ -16250,7 +16764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A303" s="18" t="s">
         <v>295</v>
       </c>
@@ -16267,7 +16781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A304" s="18" t="s">
         <v>260</v>
       </c>
@@ -16284,7 +16798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="18" t="s">
         <v>296</v>
       </c>
@@ -16301,7 +16815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="18" t="s">
         <v>297</v>
       </c>
@@ -16318,7 +16832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>298</v>
       </c>
@@ -16335,7 +16849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B308" s="18" t="s">
         <v>478</v>
       </c>
@@ -16351,8 +16865,12 @@
         <f>SUM(E208:E307)/404</f>
         <v>0.61386138613861385</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L308">
+        <f>L207/4</f>
+        <v>0.82611386138613863</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B310" s="19" t="s">
         <v>73</v>
       </c>
@@ -16368,8 +16886,12 @@
       <c r="K310" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L310">
+        <f>E102+E308+E411+E514</f>
+        <v>2.2797029702970297</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="18" t="s">
         <v>204</v>
       </c>
@@ -16398,7 +16920,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A312" s="18" t="s">
         <v>205</v>
       </c>
@@ -16427,7 +16949,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="s">
         <v>206</v>
       </c>
@@ -16453,7 +16975,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="18" t="s">
         <v>207</v>
       </c>
@@ -16482,7 +17004,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
         <v>208</v>
       </c>
@@ -16502,7 +17024,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="18" t="s">
         <v>209</v>
       </c>
@@ -16522,7 +17044,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="s">
         <v>210</v>
       </c>
@@ -16539,7 +17061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="18" t="s">
         <v>211</v>
       </c>
@@ -16556,7 +17078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="18" t="s">
         <v>212</v>
       </c>
@@ -16573,7 +17095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="18" t="s">
         <v>213</v>
       </c>
@@ -17950,7 +18472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A401" s="18" t="s">
         <v>290</v>
       </c>
@@ -17967,7 +18489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A402" s="18" t="s">
         <v>291</v>
       </c>
@@ -17984,7 +18506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A403" s="18" t="s">
         <v>292</v>
       </c>
@@ -18001,7 +18523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A404" s="18" t="s">
         <v>293</v>
       </c>
@@ -18018,7 +18540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A405" s="18" t="s">
         <v>294</v>
       </c>
@@ -18035,7 +18557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="18" t="s">
         <v>295</v>
       </c>
@@ -18052,7 +18574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="18" t="s">
         <v>260</v>
       </c>
@@ -18069,7 +18591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="18" t="s">
         <v>296</v>
       </c>
@@ -18086,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="18" t="s">
         <v>297</v>
       </c>
@@ -18103,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="18" t="s">
         <v>298</v>
       </c>
@@ -18120,7 +18642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B411" s="18" t="s">
         <v>478</v>
       </c>
@@ -18136,8 +18658,12 @@
         <f>SUM(E311:E410)/404</f>
         <v>0.55693069306930698</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L411">
+        <f>L310/4</f>
+        <v>0.56992574257425743</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B413" s="19" t="s">
         <v>74</v>
       </c>
@@ -18154,7 +18680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="18" t="s">
         <v>204</v>
       </c>
@@ -18183,7 +18709,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="18" t="s">
         <v>205</v>
       </c>
@@ -18212,7 +18738,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="18" t="s">
         <v>206</v>
       </c>
@@ -27057,6 +27583,3040 @@
       <c r="E927" s="21">
         <f>SUM(E827:E926)/404</f>
         <v>0.59158415841584155</v>
+      </c>
+    </row>
+    <row r="930" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B930" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="H930" t="s">
+        <v>602</v>
+      </c>
+      <c r="I930" t="s">
+        <v>476</v>
+      </c>
+      <c r="J930" t="s">
+        <v>601</v>
+      </c>
+      <c r="K930" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="931" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B931" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C931">
+        <v>3</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="H931">
+        <v>1</v>
+      </c>
+      <c r="I931" t="s">
+        <v>603</v>
+      </c>
+      <c r="J931" t="s">
+        <v>606</v>
+      </c>
+      <c r="K931" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="932" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B932" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C932">
+        <v>4</v>
+      </c>
+      <c r="D932">
+        <v>3</v>
+      </c>
+      <c r="H932">
+        <v>2</v>
+      </c>
+      <c r="I932" t="s">
+        <v>604</v>
+      </c>
+      <c r="J932" t="s">
+        <v>607</v>
+      </c>
+      <c r="K932" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="933" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B933" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="C933">
+        <v>3</v>
+      </c>
+      <c r="D933">
+        <v>2</v>
+      </c>
+      <c r="H933">
+        <v>3</v>
+      </c>
+      <c r="J933" t="s">
+        <v>608</v>
+      </c>
+      <c r="K933" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="934" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B934" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
+      <c r="D934">
+        <v>4</v>
+      </c>
+      <c r="H934">
+        <v>4</v>
+      </c>
+      <c r="I934" t="s">
+        <v>605</v>
+      </c>
+      <c r="J934" t="s">
+        <v>609</v>
+      </c>
+      <c r="K934" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="935" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B935" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="C935">
+        <v>4</v>
+      </c>
+      <c r="D935">
+        <v>4</v>
+      </c>
+      <c r="I935" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="936" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B936" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="C936">
+        <v>3</v>
+      </c>
+      <c r="D936">
+        <v>3</v>
+      </c>
+      <c r="I936" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="937" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B937" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
+      <c r="D937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B938" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C938">
+        <v>4</v>
+      </c>
+      <c r="D938">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A939" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B939" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C939">
+        <v>4</v>
+      </c>
+      <c r="D939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A940" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B940" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A941" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B941" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="C941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A942" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B942" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C942">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B943" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:11" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A944" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B944" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B945" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="C945">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A946" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B946" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C946">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A947" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B947" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B948" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A949" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B949" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C949">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B950" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C950">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A951" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B951" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B952" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="C952">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B953" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C953">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A954" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B954" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C954">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A955" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B955" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="C955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A956" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B956" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B957" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="C957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B958" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C958">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B959" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B960" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B961" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B962" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B963" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C963">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B964" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B965" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B966" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C966">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B967" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="C967">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B968" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C968">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B969" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="C969">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B970" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C970">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B971" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B972" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C972">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B973" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C973">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B974" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C974">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B975" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B976" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C976">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B977" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C977">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B978" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C978">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B979" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="C979">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B980" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C980">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B981" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C981">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B982" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B983" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C983">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B984" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C984">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B985" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="C985">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B986" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B987" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="C987">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B988" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="C988">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B989" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B990" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C990">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B991" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C991">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B992" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C992">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B993" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="C993">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B994" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C994">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B995" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="C995">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B996" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B997" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B998" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B999" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1000" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1000">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1001" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1001">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1002" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1002">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1003" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1004" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1005" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1005">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1006" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1006">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1007" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1007">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1008" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1009" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1010" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1010">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1011" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1011">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1012" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1012">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1013" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1013">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1014" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1014">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1015" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1015">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1016" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1016">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1017" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1018" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1018">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1019" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1020" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1021" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1022" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1022">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1023" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C1023">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1024" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1024">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1025" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1025">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1026" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1027" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1028" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1028">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1029" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="C1029">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" ht="17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1030" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1030">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1031">
+        <f>SUM(C931:C1030)/404</f>
+        <v>0.87376237623762376</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1036" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1036" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1036">
+        <v>3</v>
+      </c>
+      <c r="D1036">
+        <v>4</v>
+      </c>
+      <c r="E1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1037" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1037" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037">
+        <v>4</v>
+      </c>
+      <c r="E1037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1038" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1038" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1038">
+        <v>4</v>
+      </c>
+      <c r="D1038">
+        <v>4</v>
+      </c>
+      <c r="E1038">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1039" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1039" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1039">
+        <v>4</v>
+      </c>
+      <c r="D1039">
+        <v>3</v>
+      </c>
+      <c r="E1039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1040" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1040" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1040">
+        <v>4</v>
+      </c>
+      <c r="D1040">
+        <v>4</v>
+      </c>
+      <c r="E1040">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1041" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1041" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1041">
+        <v>4</v>
+      </c>
+      <c r="D1041">
+        <v>4</v>
+      </c>
+      <c r="E1041">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1042" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1042" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1042">
+        <v>3</v>
+      </c>
+      <c r="D1042">
+        <v>4</v>
+      </c>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1043" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1043" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1043">
+        <v>4</v>
+      </c>
+      <c r="D1043">
+        <v>4</v>
+      </c>
+      <c r="E1043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1044" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1044" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1044">
+        <v>3</v>
+      </c>
+      <c r="D1044">
+        <v>4</v>
+      </c>
+      <c r="E1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1045" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1045" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1045">
+        <v>4</v>
+      </c>
+      <c r="D1045">
+        <v>4</v>
+      </c>
+      <c r="E1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1046" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1046" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1046">
+        <v>3</v>
+      </c>
+      <c r="D1046">
+        <v>4</v>
+      </c>
+      <c r="E1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1047" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1047" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1047">
+        <v>3</v>
+      </c>
+      <c r="D1047">
+        <v>4</v>
+      </c>
+      <c r="E1047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1048" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1048" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1048">
+        <v>4</v>
+      </c>
+      <c r="D1048">
+        <v>1</v>
+      </c>
+      <c r="E1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1049" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1049" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1049">
+        <v>3</v>
+      </c>
+      <c r="D1049">
+        <v>3</v>
+      </c>
+      <c r="E1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1050" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1050" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1050">
+        <v>4</v>
+      </c>
+      <c r="D1050">
+        <v>4</v>
+      </c>
+      <c r="E1050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1051" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1051" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1051">
+        <v>4</v>
+      </c>
+      <c r="D1051">
+        <v>4</v>
+      </c>
+      <c r="E1051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1052" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1052" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1052">
+        <v>3</v>
+      </c>
+      <c r="D1052">
+        <v>4</v>
+      </c>
+      <c r="E1052">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1053" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1053" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1053">
+        <v>3</v>
+      </c>
+      <c r="D1053">
+        <v>4</v>
+      </c>
+      <c r="E1053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1054" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1054" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1054">
+        <v>4</v>
+      </c>
+      <c r="D1054">
+        <v>2</v>
+      </c>
+      <c r="E1054">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1055" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1055" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1055">
+        <v>3</v>
+      </c>
+      <c r="D1055">
+        <v>4</v>
+      </c>
+      <c r="E1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1056" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1056" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1056">
+        <v>3</v>
+      </c>
+      <c r="D1056">
+        <v>4</v>
+      </c>
+      <c r="E1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1057" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1057" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1057">
+        <v>3</v>
+      </c>
+      <c r="D1057">
+        <v>3</v>
+      </c>
+      <c r="E1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1058" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1058" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1058">
+        <v>4</v>
+      </c>
+      <c r="D1058">
+        <v>4</v>
+      </c>
+      <c r="E1058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1059" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1059" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1059">
+        <v>4</v>
+      </c>
+      <c r="D1059">
+        <v>4</v>
+      </c>
+      <c r="E1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1060" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1060" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1060">
+        <v>4</v>
+      </c>
+      <c r="D1060">
+        <v>4</v>
+      </c>
+      <c r="E1060">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1061" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1061" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1061">
+        <v>3</v>
+      </c>
+      <c r="D1061">
+        <v>2</v>
+      </c>
+      <c r="E1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1062" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1062" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1062">
+        <v>4</v>
+      </c>
+      <c r="D1062">
+        <v>4</v>
+      </c>
+      <c r="E1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1063" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1063" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1063">
+        <v>3</v>
+      </c>
+      <c r="D1063">
+        <v>4</v>
+      </c>
+      <c r="E1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1064" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1064" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1064">
+        <v>4</v>
+      </c>
+      <c r="D1064">
+        <v>3</v>
+      </c>
+      <c r="E1064">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1065" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1065" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1065">
+        <v>4</v>
+      </c>
+      <c r="D1065">
+        <v>4</v>
+      </c>
+      <c r="E1065">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1066" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1066" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1066">
+        <v>3</v>
+      </c>
+      <c r="D1066">
+        <v>3</v>
+      </c>
+      <c r="E1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1067" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1067" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1067">
+        <v>3</v>
+      </c>
+      <c r="D1067">
+        <v>3</v>
+      </c>
+      <c r="E1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1068" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1068" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1068">
+        <v>1</v>
+      </c>
+      <c r="D1068">
+        <v>1</v>
+      </c>
+      <c r="E1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1069" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1069" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1069">
+        <v>4</v>
+      </c>
+      <c r="D1069">
+        <v>4</v>
+      </c>
+      <c r="E1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1070" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1070" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1070">
+        <v>3</v>
+      </c>
+      <c r="D1070">
+        <v>4</v>
+      </c>
+      <c r="E1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1071" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1071" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1071">
+        <v>3</v>
+      </c>
+      <c r="D1071">
+        <v>4</v>
+      </c>
+      <c r="E1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1072" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1072" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1072">
+        <v>3</v>
+      </c>
+      <c r="D1072">
+        <v>4</v>
+      </c>
+      <c r="E1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1073" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1073" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1073">
+        <v>1</v>
+      </c>
+      <c r="D1073">
+        <v>1</v>
+      </c>
+      <c r="E1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1074" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1074" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1074">
+        <v>4</v>
+      </c>
+      <c r="D1074">
+        <v>2</v>
+      </c>
+      <c r="E1074">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1075" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1075" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1075">
+        <v>4</v>
+      </c>
+      <c r="D1075">
+        <v>4</v>
+      </c>
+      <c r="E1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1076" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1076" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1076">
+        <v>3</v>
+      </c>
+      <c r="D1076">
+        <v>4</v>
+      </c>
+      <c r="E1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1077" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1077" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1077">
+        <v>3</v>
+      </c>
+      <c r="D1077">
+        <v>4</v>
+      </c>
+      <c r="E1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1078" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1078" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1078">
+        <v>3</v>
+      </c>
+      <c r="D1078">
+        <v>4</v>
+      </c>
+      <c r="E1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1079" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1079" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1079">
+        <v>4</v>
+      </c>
+      <c r="D1079">
+        <v>2</v>
+      </c>
+      <c r="E1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1080" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1080" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1080">
+        <v>3</v>
+      </c>
+      <c r="D1080">
+        <v>4</v>
+      </c>
+      <c r="E1080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1081" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1081" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1081">
+        <v>4</v>
+      </c>
+      <c r="D1081">
+        <v>4</v>
+      </c>
+      <c r="E1081">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1082" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1082" s="18">
+        <v>14</v>
+      </c>
+      <c r="C1082">
+        <v>4</v>
+      </c>
+      <c r="D1082">
+        <v>4</v>
+      </c>
+      <c r="E1082">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1083" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1083" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1083">
+        <v>4</v>
+      </c>
+      <c r="D1083">
+        <v>4</v>
+      </c>
+      <c r="E1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1084" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1084" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1084">
+        <v>3</v>
+      </c>
+      <c r="D1084">
+        <v>4</v>
+      </c>
+      <c r="E1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1085" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1085" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1085">
+        <v>3</v>
+      </c>
+      <c r="D1085">
+        <v>4</v>
+      </c>
+      <c r="E1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1086" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1086" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1086">
+        <v>4</v>
+      </c>
+      <c r="D1086">
+        <v>4</v>
+      </c>
+      <c r="E1086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1087" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1087" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1087">
+        <v>3</v>
+      </c>
+      <c r="D1087">
+        <v>4</v>
+      </c>
+      <c r="E1087">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1088" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1088" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1088">
+        <v>4</v>
+      </c>
+      <c r="D1088">
+        <v>4</v>
+      </c>
+      <c r="E1088">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1089" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1089" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1089">
+        <v>4</v>
+      </c>
+      <c r="D1089">
+        <v>2</v>
+      </c>
+      <c r="E1089">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1090" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1090" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1090">
+        <v>4</v>
+      </c>
+      <c r="D1090">
+        <v>4</v>
+      </c>
+      <c r="E1090">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1091" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1091" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1091">
+        <v>4</v>
+      </c>
+      <c r="D1091">
+        <v>4</v>
+      </c>
+      <c r="E1091">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1092" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1092" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="C1092">
+        <v>4</v>
+      </c>
+      <c r="D1092">
+        <v>3</v>
+      </c>
+      <c r="E1092">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1093" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1093" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1093">
+        <v>4</v>
+      </c>
+      <c r="D1093">
+        <v>4</v>
+      </c>
+      <c r="E1093">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1094" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1094" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1094">
+        <v>4</v>
+      </c>
+      <c r="D1094">
+        <v>1</v>
+      </c>
+      <c r="E1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1095" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1095" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1095">
+        <v>3</v>
+      </c>
+      <c r="D1095">
+        <v>4</v>
+      </c>
+      <c r="E1095">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1096" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1096" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1096">
+        <v>3</v>
+      </c>
+      <c r="D1096">
+        <v>4</v>
+      </c>
+      <c r="E1096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1097" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1097" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1097">
+        <v>3</v>
+      </c>
+      <c r="D1097">
+        <v>2</v>
+      </c>
+      <c r="E1097">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1098" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1098" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="C1098">
+        <v>3</v>
+      </c>
+      <c r="D1098">
+        <v>4</v>
+      </c>
+      <c r="E1098">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1099" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1099" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1099">
+        <v>4</v>
+      </c>
+      <c r="D1099">
+        <v>4</v>
+      </c>
+      <c r="E1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1100" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1100" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1100">
+        <v>3</v>
+      </c>
+      <c r="D1100">
+        <v>1</v>
+      </c>
+      <c r="E1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1101" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1101" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1101">
+        <v>3</v>
+      </c>
+      <c r="D1101">
+        <v>4</v>
+      </c>
+      <c r="E1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1102" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1102" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1102">
+        <v>4</v>
+      </c>
+      <c r="D1102">
+        <v>3</v>
+      </c>
+      <c r="E1102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1103" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1103" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1103">
+        <v>4</v>
+      </c>
+      <c r="D1103">
+        <v>1</v>
+      </c>
+      <c r="E1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1104" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1104" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1104">
+        <v>4</v>
+      </c>
+      <c r="D1104">
+        <v>4</v>
+      </c>
+      <c r="E1104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1105" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1105" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1105">
+        <v>4</v>
+      </c>
+      <c r="D1105">
+        <v>4</v>
+      </c>
+      <c r="E1105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1106" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1106" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1106">
+        <v>3</v>
+      </c>
+      <c r="D1106">
+        <v>4</v>
+      </c>
+      <c r="E1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1107" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1107" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1107">
+        <v>3</v>
+      </c>
+      <c r="D1107">
+        <v>4</v>
+      </c>
+      <c r="E1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1108" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1108" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1108">
+        <v>4</v>
+      </c>
+      <c r="D1108">
+        <v>1</v>
+      </c>
+      <c r="E1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1109" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1109" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C1109">
+        <v>4</v>
+      </c>
+      <c r="D1109">
+        <v>4</v>
+      </c>
+      <c r="E1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1110" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1110" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1110">
+        <v>3</v>
+      </c>
+      <c r="D1110">
+        <v>4</v>
+      </c>
+      <c r="E1110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1111" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1111" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1111">
+        <v>3</v>
+      </c>
+      <c r="D1111">
+        <v>4</v>
+      </c>
+      <c r="E1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1112" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1112" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1112">
+        <v>4</v>
+      </c>
+      <c r="D1112">
+        <v>4</v>
+      </c>
+      <c r="E1112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1113" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1113" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1113">
+        <v>3</v>
+      </c>
+      <c r="D1113">
+        <v>4</v>
+      </c>
+      <c r="E1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1114" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1114" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1114">
+        <v>3</v>
+      </c>
+      <c r="D1114">
+        <v>4</v>
+      </c>
+      <c r="E1114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1115" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1115" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1115">
+        <v>3</v>
+      </c>
+      <c r="D1115">
+        <v>4</v>
+      </c>
+      <c r="E1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1116" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1116" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1116">
+        <v>3</v>
+      </c>
+      <c r="D1116">
+        <v>4</v>
+      </c>
+      <c r="E1116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1117" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1117" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1117">
+        <v>3</v>
+      </c>
+      <c r="D1117">
+        <v>4</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1118" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1118" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1118">
+        <v>3</v>
+      </c>
+      <c r="D1118">
+        <v>4</v>
+      </c>
+      <c r="E1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1119" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1119" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="C1119">
+        <v>3</v>
+      </c>
+      <c r="D1119">
+        <v>4</v>
+      </c>
+      <c r="E1119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1120" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1120" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1120">
+        <v>4</v>
+      </c>
+      <c r="D1120">
+        <v>4</v>
+      </c>
+      <c r="E1120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1121" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1121" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1121">
+        <v>3</v>
+      </c>
+      <c r="D1121">
+        <v>4</v>
+      </c>
+      <c r="E1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1122" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1122" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1122">
+        <v>4</v>
+      </c>
+      <c r="D1122">
+        <v>4</v>
+      </c>
+      <c r="E1122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1123" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1123" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1123">
+        <v>3</v>
+      </c>
+      <c r="D1123">
+        <v>4</v>
+      </c>
+      <c r="E1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1124" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1124" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1124">
+        <v>3</v>
+      </c>
+      <c r="D1124">
+        <v>4</v>
+      </c>
+      <c r="E1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1125" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1125" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1125">
+        <v>3</v>
+      </c>
+      <c r="D1125">
+        <v>4</v>
+      </c>
+      <c r="E1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1126" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1126" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1126">
+        <v>4</v>
+      </c>
+      <c r="D1126">
+        <v>2</v>
+      </c>
+      <c r="E1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1127" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1127" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C1127">
+        <v>4</v>
+      </c>
+      <c r="D1127">
+        <v>4</v>
+      </c>
+      <c r="E1127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1128" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1128" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1128">
+        <v>3</v>
+      </c>
+      <c r="D1128">
+        <v>3</v>
+      </c>
+      <c r="E1128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1129" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1129" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1129">
+        <v>4</v>
+      </c>
+      <c r="D1129">
+        <v>4</v>
+      </c>
+      <c r="E1129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1130" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1130" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+      <c r="D1130">
+        <v>4</v>
+      </c>
+      <c r="E1130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1131" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1131" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1131">
+        <v>4</v>
+      </c>
+      <c r="D1131">
+        <v>1</v>
+      </c>
+      <c r="E1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1132" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1132" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1132">
+        <v>4</v>
+      </c>
+      <c r="D1132">
+        <v>1</v>
+      </c>
+      <c r="E1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1133" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1133" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1133">
+        <v>4</v>
+      </c>
+      <c r="D1133">
+        <v>4</v>
+      </c>
+      <c r="E1133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1134" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1134" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1134">
+        <v>4</v>
+      </c>
+      <c r="D1134">
+        <v>4</v>
+      </c>
+      <c r="E1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1135" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1135" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1135">
+        <v>4</v>
+      </c>
+      <c r="D1135">
+        <v>4</v>
+      </c>
+      <c r="E1135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1136" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1136" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1136">
+        <v>4</v>
+      </c>
+      <c r="D1136">
+        <v>4</v>
+      </c>
+      <c r="E1136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1137" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1137" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1137">
+        <v>4</v>
+      </c>
+      <c r="D1137">
+        <v>4</v>
+      </c>
+      <c r="E1137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1138" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1138" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1138">
+        <v>4</v>
+      </c>
+      <c r="D1138">
+        <v>4</v>
+      </c>
+      <c r="E1138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1139" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1139" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1139">
+        <v>4</v>
+      </c>
+      <c r="D1139">
+        <v>4</v>
+      </c>
+      <c r="E1139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1140" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1140" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1140">
+        <v>4</v>
+      </c>
+      <c r="D1140">
+        <v>4</v>
+      </c>
+      <c r="E1140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1141" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1141" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="C1141">
+        <v>4</v>
+      </c>
+      <c r="D1141">
+        <v>4</v>
+      </c>
+      <c r="E1141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1142" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1142" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1142">
+        <v>4</v>
+      </c>
+      <c r="D1142">
+        <v>4</v>
+      </c>
+      <c r="E1142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1143">
+        <f>SUM(C1036:C1142)/428</f>
+        <v>0.87616822429906538</v>
+      </c>
+      <c r="D1143">
+        <f>SUM(D1036:D1142)/428</f>
+        <v>0.88317757009345799</v>
+      </c>
+      <c r="E1143">
+        <f>SUM(E1036:E1142)/428</f>
+        <v>0.54672897196261683</v>
       </c>
     </row>
   </sheetData>
@@ -27067,10 +30627,1009 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C1">
+        <v>0.6</v>
+      </c>
+      <c r="D1">
+        <v>0.7</v>
+      </c>
+      <c r="E1">
+        <v>0.8</v>
+      </c>
+      <c r="F1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D3" t="s">
+        <v>915</v>
+      </c>
+      <c r="E3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="B4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E6" t="s">
+        <v>915</v>
+      </c>
+      <c r="F6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C7" t="s">
+        <v>918</v>
+      </c>
+      <c r="D7" t="s">
+        <v>918</v>
+      </c>
+      <c r="E7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B9" t="s">
+        <v>919</v>
+      </c>
+      <c r="C9" t="s">
+        <v>921</v>
+      </c>
+      <c r="D9" t="s">
+        <v>915</v>
+      </c>
+      <c r="E9" t="s">
+        <v>915</v>
+      </c>
+      <c r="F9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="B10" t="s">
+        <v>917</v>
+      </c>
+      <c r="C10" t="s">
+        <v>917</v>
+      </c>
+      <c r="D10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E10" t="s">
+        <v>917</v>
+      </c>
+      <c r="F10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>882</v>
+      </c>
+      <c r="B12" t="s">
+        <v>920</v>
+      </c>
+      <c r="C12" t="s">
+        <v>920</v>
+      </c>
+      <c r="D12" t="s">
+        <v>920</v>
+      </c>
+      <c r="E12" t="s">
+        <v>915</v>
+      </c>
+      <c r="F12" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="B13" t="s">
+        <v>918</v>
+      </c>
+      <c r="C13" t="s">
+        <v>918</v>
+      </c>
+      <c r="D13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F13" t="s">
+        <v>918</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>884</v>
+      </c>
+      <c r="B15" t="s">
+        <v>919</v>
+      </c>
+      <c r="C15" t="s">
+        <v>919</v>
+      </c>
+      <c r="D15" t="s">
+        <v>914</v>
+      </c>
+      <c r="E15" t="s">
+        <v>914</v>
+      </c>
+      <c r="F15" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="B16" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" t="s">
+        <v>917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>917</v>
+      </c>
+      <c r="E16" t="s">
+        <v>917</v>
+      </c>
+      <c r="F16" t="s">
+        <v>917</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="XFD16" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>885</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>886</v>
+      </c>
+      <c r="B18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C18" t="s">
+        <v>919</v>
+      </c>
+      <c r="D18" t="s">
+        <v>915</v>
+      </c>
+      <c r="E18" t="s">
+        <v>915</v>
+      </c>
+      <c r="F18" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="B19" t="s">
+        <v>917</v>
+      </c>
+      <c r="C19" t="s">
+        <v>917</v>
+      </c>
+      <c r="D19" t="s">
+        <v>917</v>
+      </c>
+      <c r="E19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>888</v>
+      </c>
+      <c r="B21" t="s">
+        <v>920</v>
+      </c>
+      <c r="C21" t="s">
+        <v>915</v>
+      </c>
+      <c r="D21" t="s">
+        <v>915</v>
+      </c>
+      <c r="E21" t="s">
+        <v>915</v>
+      </c>
+      <c r="F21" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="B22" t="s">
+        <v>918</v>
+      </c>
+      <c r="C22" t="s">
+        <v>918</v>
+      </c>
+      <c r="D22" t="s">
+        <v>918</v>
+      </c>
+      <c r="E22" t="s">
+        <v>918</v>
+      </c>
+      <c r="F22" t="s">
+        <v>918</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>890</v>
+      </c>
+      <c r="B24" t="s">
+        <v>920</v>
+      </c>
+      <c r="C24" t="s">
+        <v>920</v>
+      </c>
+      <c r="D24" t="s">
+        <v>920</v>
+      </c>
+      <c r="E24" t="s">
+        <v>920</v>
+      </c>
+      <c r="F24" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="B25" t="s">
+        <v>918</v>
+      </c>
+      <c r="C25" t="s">
+        <v>918</v>
+      </c>
+      <c r="D25" t="s">
+        <v>918</v>
+      </c>
+      <c r="E25" t="s">
+        <v>918</v>
+      </c>
+      <c r="F25" t="s">
+        <v>918</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="XFD25" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>892</v>
+      </c>
+      <c r="B27" t="s">
+        <v>914</v>
+      </c>
+      <c r="C27" t="s">
+        <v>920</v>
+      </c>
+      <c r="D27" t="s">
+        <v>920</v>
+      </c>
+      <c r="E27" t="s">
+        <v>915</v>
+      </c>
+      <c r="F27" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="B28" t="s">
+        <v>918</v>
+      </c>
+      <c r="C28" t="s">
+        <v>918</v>
+      </c>
+      <c r="D28" t="s">
+        <v>918</v>
+      </c>
+      <c r="E28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F28" t="s">
+        <v>918</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>894</v>
+      </c>
+      <c r="B30" t="s">
+        <v>914</v>
+      </c>
+      <c r="C30" t="s">
+        <v>920</v>
+      </c>
+      <c r="D30" t="s">
+        <v>920</v>
+      </c>
+      <c r="E30" t="s">
+        <v>920</v>
+      </c>
+      <c r="F30" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="B31" t="s">
+        <v>918</v>
+      </c>
+      <c r="C31" t="s">
+        <v>918</v>
+      </c>
+      <c r="D31" t="s">
+        <v>918</v>
+      </c>
+      <c r="E31" t="s">
+        <v>918</v>
+      </c>
+      <c r="F31" t="s">
+        <v>918</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>895</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>896</v>
+      </c>
+      <c r="B33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C33" t="s">
+        <v>920</v>
+      </c>
+      <c r="D33" t="s">
+        <v>920</v>
+      </c>
+      <c r="E33" t="s">
+        <v>920</v>
+      </c>
+      <c r="F33" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B34" t="s">
+        <v>918</v>
+      </c>
+      <c r="C34" t="s">
+        <v>918</v>
+      </c>
+      <c r="D34" t="s">
+        <v>918</v>
+      </c>
+      <c r="E34" t="s">
+        <v>918</v>
+      </c>
+      <c r="F34" t="s">
+        <v>918</v>
+      </c>
+      <c r="XFD34" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>898</v>
+      </c>
+      <c r="B36" t="s">
+        <v>914</v>
+      </c>
+      <c r="C36" t="s">
+        <v>915</v>
+      </c>
+      <c r="D36" t="s">
+        <v>915</v>
+      </c>
+      <c r="E36" t="s">
+        <v>915</v>
+      </c>
+      <c r="F36" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B37" t="s">
+        <v>918</v>
+      </c>
+      <c r="C37" t="s">
+        <v>918</v>
+      </c>
+      <c r="D37" t="s">
+        <v>918</v>
+      </c>
+      <c r="E37" t="s">
+        <v>918</v>
+      </c>
+      <c r="F37" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>900</v>
+      </c>
+      <c r="B39" t="s">
+        <v>914</v>
+      </c>
+      <c r="C39" t="s">
+        <v>919</v>
+      </c>
+      <c r="D39" t="s">
+        <v>914</v>
+      </c>
+      <c r="E39" t="s">
+        <v>915</v>
+      </c>
+      <c r="F39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="B40" t="s">
+        <v>917</v>
+      </c>
+      <c r="C40" t="s">
+        <v>917</v>
+      </c>
+      <c r="D40" t="s">
+        <v>917</v>
+      </c>
+      <c r="E40" t="s">
+        <v>917</v>
+      </c>
+      <c r="F40" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>902</v>
+      </c>
+      <c r="B42" t="s">
+        <v>914</v>
+      </c>
+      <c r="C42" t="s">
+        <v>920</v>
+      </c>
+      <c r="D42" t="s">
+        <v>915</v>
+      </c>
+      <c r="E42" t="s">
+        <v>915</v>
+      </c>
+      <c r="F42" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="B43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C43" t="s">
+        <v>918</v>
+      </c>
+      <c r="D43" t="s">
+        <v>918</v>
+      </c>
+      <c r="E43" t="s">
+        <v>918</v>
+      </c>
+      <c r="F43" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>888</v>
+      </c>
+      <c r="B45" t="s">
+        <v>914</v>
+      </c>
+      <c r="C45" t="s">
+        <v>915</v>
+      </c>
+      <c r="D45" t="s">
+        <v>915</v>
+      </c>
+      <c r="E45" t="s">
+        <v>915</v>
+      </c>
+      <c r="F45" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6 16384:16384" ht="17" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="B46" t="s">
+        <v>918</v>
+      </c>
+      <c r="C46" t="s">
+        <v>918</v>
+      </c>
+      <c r="D46" t="s">
+        <v>918</v>
+      </c>
+      <c r="E46" t="s">
+        <v>918</v>
+      </c>
+      <c r="F46" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6 16384:16384" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>904</v>
+      </c>
+      <c r="B48" t="s">
+        <v>914</v>
+      </c>
+      <c r="C48" t="s">
+        <v>919</v>
+      </c>
+      <c r="D48" t="s">
+        <v>914</v>
+      </c>
+      <c r="E48" t="s">
+        <v>914</v>
+      </c>
+      <c r="F48" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="B49" t="s">
+        <v>917</v>
+      </c>
+      <c r="C49" t="s">
+        <v>917</v>
+      </c>
+      <c r="D49" t="s">
+        <v>917</v>
+      </c>
+      <c r="E49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F49" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>906</v>
+      </c>
+      <c r="B51" t="s">
+        <v>914</v>
+      </c>
+      <c r="C51" t="s">
+        <v>919</v>
+      </c>
+      <c r="D51" t="s">
+        <v>914</v>
+      </c>
+      <c r="E51" t="s">
+        <v>914</v>
+      </c>
+      <c r="F51" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>917</v>
+      </c>
+      <c r="D52" t="s">
+        <v>917</v>
+      </c>
+      <c r="E52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F52" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>908</v>
+      </c>
+      <c r="B54" t="s">
+        <v>914</v>
+      </c>
+      <c r="C54" t="s">
+        <v>914</v>
+      </c>
+      <c r="D54" t="s">
+        <v>914</v>
+      </c>
+      <c r="E54" t="s">
+        <v>914</v>
+      </c>
+      <c r="F54" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="B55" t="s">
+        <v>917</v>
+      </c>
+      <c r="C55" t="s">
+        <v>917</v>
+      </c>
+      <c r="D55" t="s">
+        <v>917</v>
+      </c>
+      <c r="E55" t="s">
+        <v>917</v>
+      </c>
+      <c r="F55" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>914</v>
+      </c>
+      <c r="C57" t="s">
+        <v>914</v>
+      </c>
+      <c r="D57" t="s">
+        <v>914</v>
+      </c>
+      <c r="E57" t="s">
+        <v>914</v>
+      </c>
+      <c r="F57" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="B58" t="s">
+        <v>917</v>
+      </c>
+      <c r="C58" t="s">
+        <v>917</v>
+      </c>
+      <c r="D58" t="s">
+        <v>917</v>
+      </c>
+      <c r="E58" t="s">
+        <v>917</v>
+      </c>
+      <c r="F58" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>912</v>
+      </c>
+      <c r="B60" t="s">
+        <v>914</v>
+      </c>
+      <c r="C60" t="s">
+        <v>914</v>
+      </c>
+      <c r="D60" t="s">
+        <v>914</v>
+      </c>
+      <c r="E60" t="s">
+        <v>915</v>
+      </c>
+      <c r="F60" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="B61" t="s">
+        <v>917</v>
+      </c>
+      <c r="C61" t="s">
+        <v>917</v>
+      </c>
+      <c r="D61" t="s">
+        <v>917</v>
+      </c>
+      <c r="E61" t="s">
+        <v>917</v>
+      </c>
+      <c r="F61" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>913</v>
+      </c>
+      <c r="B63" t="s">
+        <v>914</v>
+      </c>
+      <c r="C63" t="s">
+        <v>914</v>
+      </c>
+      <c r="D63" t="s">
+        <v>914</v>
+      </c>
+      <c r="E63" t="s">
+        <v>915</v>
+      </c>
+      <c r="F63" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>916</v>
+      </c>
+      <c r="B64" t="s">
+        <v>917</v>
+      </c>
+      <c r="C64" t="s">
+        <v>917</v>
+      </c>
+      <c r="D64" t="s">
+        <v>917</v>
+      </c>
+      <c r="E64" t="s">
+        <v>917</v>
+      </c>
+      <c r="F64" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:XFD64"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
